--- a/data_source.xlsx
+++ b/data_source.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiyunqin/Desktop/Homework/graduate/MSCI609/homework/project/MSCI609-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AB70E68E-275B-D34B-A9AC-D02ACE48754A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102D67CE-7FEF-2D48-AA11-91015F598EE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1"/>
+    <workbookView xWindow="28800" yWindow="1240" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_source" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="50">
   <si>
     <t>Country</t>
   </si>
@@ -136,16 +136,61 @@
   </si>
   <si>
     <t>INDIA</t>
+  </si>
+  <si>
+    <t>mean 1</t>
+  </si>
+  <si>
+    <t>mean 2</t>
+  </si>
+  <si>
+    <t>std 1</t>
+  </si>
+  <si>
+    <t>std 2</t>
+  </si>
+  <si>
+    <t>Calculation</t>
+  </si>
+  <si>
+    <t>S pool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variance </t>
+  </si>
+  <si>
+    <t>Standard error of the difference</t>
+  </si>
+  <si>
+    <t>T obj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T critical </t>
+  </si>
+  <si>
+    <t>T objective</t>
+  </si>
+  <si>
+    <t>T critical</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>Country A</t>
+  </si>
+  <si>
+    <t>Country B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -280,8 +325,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,6 +518,24 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -622,9 +697,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -979,7 +1062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
@@ -2853,21 +2936,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="20" max="20" width="16" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:23" ht="22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2889,8 +2983,18 @@
       <c r="I2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2">
+        <f>I4</f>
+        <v>113.93818181818182</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" ht="22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>94.76</v>
       </c>
@@ -2898,19 +3002,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <f>B3/$I$3</f>
+        <f t="shared" ref="C3:C13" si="0">B3/$I$3</f>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="D3" s="1">
-        <f>(B3-1)/$I$3</f>
+        <f t="shared" ref="D3:D13" si="1">(B3-1)/$I$3</f>
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <f>_xlfn.NORM.DIST(A3,$I$4,$I$5,TRUE)</f>
+        <f t="shared" ref="E3:E13" si="2">_xlfn.NORM.DIST(A3,$I$4,$I$5,TRUE)</f>
         <v>8.5744216333255324E-2</v>
       </c>
       <c r="F3" s="1">
-        <f>ABS(E3-D3)</f>
+        <f t="shared" ref="F3:F13" si="3">ABS(E3-D3)</f>
         <v>8.5744216333255324E-2</v>
       </c>
       <c r="H3" t="s">
@@ -2920,8 +3024,23 @@
         <f>COUNT(A3:A13)</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="2">
+        <f>I5</f>
+        <v>14.024912704314323</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="3">
+        <f>L3*L3</f>
+        <v>196.69817636363729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>101.86</v>
       </c>
@@ -2929,19 +3048,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <f>B4/$I$3</f>
+        <f t="shared" si="0"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="D4" s="1">
-        <f>(B4-1)/$I$3</f>
+        <f t="shared" si="1"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="E4" s="1">
-        <f>_xlfn.NORM.DIST(A4,$I$4,$I$5,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>0.19456538321500552</v>
       </c>
       <c r="F4" s="1">
-        <f>ABS(E4-D4)</f>
+        <f t="shared" si="3"/>
         <v>0.10365629230591461</v>
       </c>
       <c r="H4" t="s">
@@ -2951,8 +3070,33 @@
         <f>AVERAGE(A3:A13)</f>
         <v>113.93818181818182</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2">
+        <f>I17</f>
+        <v>200.7409090909091</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="S4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>103.66</v>
       </c>
@@ -2960,19 +3104,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <f>B5/$I$3</f>
+        <f t="shared" si="0"/>
         <v>0.36363636363636365</v>
       </c>
       <c r="D5" s="1">
-        <f>(B5-1)/$I$3</f>
+        <f t="shared" si="1"/>
         <v>0.27272727272727271</v>
       </c>
       <c r="E5" s="1">
-        <f>_xlfn.NORM.DIST(A5,$I$4,$I$5,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>0.23182442711191886</v>
       </c>
       <c r="F5" s="1">
-        <f>ABS(E5-D5)</f>
+        <f t="shared" si="3"/>
         <v>4.0902845615353844E-2</v>
       </c>
       <c r="H5" t="s">
@@ -2982,8 +3126,37 @@
         <f>_xlfn.STDEV.S(A3:A13)</f>
         <v>14.024912704314323</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="2">
+        <f>I18</f>
+        <v>71.904262106574052</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3">
+        <f>L5*L5</f>
+        <v>5170.2229090909013</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U5" s="7">
+        <v>-1.3956077629833812</v>
+      </c>
+      <c r="V5" s="6">
+        <f>$N$12</f>
+        <v>2.0859999999999999</v>
+      </c>
+      <c r="W5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>104.2</v>
       </c>
@@ -2991,23 +3164,44 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <f>B6/$I$3</f>
+        <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
       <c r="D6" s="1">
-        <f>(B6-1)/$I$3</f>
+        <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="E6" s="1">
-        <f>_xlfn.NORM.DIST(A6,$I$4,$I$5,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>0.24373173565350675</v>
       </c>
       <c r="F6" s="1">
-        <f>ABS(E6-D6)</f>
+        <f t="shared" si="3"/>
         <v>6.191355383532493E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="S6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="U6" s="7">
+        <v>2.4817759855432326</v>
+      </c>
+      <c r="V6" s="6">
+        <f t="shared" ref="V6:V10" si="4">$N$12</f>
+        <v>2.0859999999999999</v>
+      </c>
+      <c r="W6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>108.84</v>
       </c>
@@ -3015,19 +3209,19 @@
         <v>7</v>
       </c>
       <c r="C7" s="1">
-        <f>B7/$I$3</f>
+        <f t="shared" si="0"/>
         <v>0.63636363636363635</v>
       </c>
       <c r="D7" s="1">
-        <f>(B7-1)/$I$3</f>
+        <f t="shared" si="1"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="E7" s="1">
-        <f>_xlfn.NORM.DIST(A7,$I$4,$I$5,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>0.35811235016179066</v>
       </c>
       <c r="F7" s="1">
-        <f>ABS(E7-D7)</f>
+        <f t="shared" si="3"/>
         <v>0.18734219529275475</v>
       </c>
       <c r="H7" t="s">
@@ -3037,8 +3231,31 @@
         <f>MAX(F3:F13)</f>
         <v>0.18734219529275475</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="S7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U7" s="7">
+        <v>-4.4490667112750275</v>
+      </c>
+      <c r="V7" s="6">
+        <f t="shared" si="4"/>
+        <v>2.0859999999999999</v>
+      </c>
+      <c r="W7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>109.16</v>
       </c>
@@ -3046,23 +3263,49 @@
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <f>B8/$I$3</f>
+        <f t="shared" si="0"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="D8" s="1">
-        <f>(B8-1)/$I$3</f>
+        <f t="shared" si="1"/>
         <v>0.45454545454545453</v>
       </c>
       <c r="E8" s="1">
-        <f>_xlfn.NORM.DIST(A8,$I$4,$I$5,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>0.36666756291537195</v>
       </c>
       <c r="F8" s="1">
-        <f>ABS(E8-D8)</f>
+        <f t="shared" si="3"/>
         <v>8.7877891630082583E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="4">
+        <f>(O3+O5)/2</f>
+        <v>2683.4605427272695</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="S8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="U8" s="7">
+        <v>-2.1962361131509156</v>
+      </c>
+      <c r="V8" s="6">
+        <f t="shared" si="4"/>
+        <v>2.0859999999999999</v>
+      </c>
+      <c r="W8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>113.06</v>
       </c>
@@ -3070,23 +3313,49 @@
         <v>5</v>
       </c>
       <c r="C9" s="1">
-        <f>B9/$I$3</f>
+        <f t="shared" si="0"/>
         <v>0.45454545454545453</v>
       </c>
       <c r="D9" s="1">
-        <f>(B9-1)/$I$3</f>
+        <f t="shared" si="1"/>
         <v>0.36363636363636365</v>
       </c>
       <c r="E9" s="1">
-        <f>_xlfn.NORM.DIST(A9,$I$4,$I$5,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>0.47503620419500775</v>
       </c>
       <c r="F9" s="1">
-        <f>ABS(E9-D9)</f>
+        <f t="shared" si="3"/>
         <v>0.1113998405586441</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="4">
+        <f>SQRT(N8*(2/11))</f>
+        <v>22.088501915238698</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="S9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U9" s="7">
+        <v>-3.0708883735589243</v>
+      </c>
+      <c r="V9" s="6">
+        <f t="shared" si="4"/>
+        <v>2.0859999999999999</v>
+      </c>
+      <c r="W9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>119.21</v>
       </c>
@@ -3094,23 +3363,49 @@
         <v>8</v>
       </c>
       <c r="C10" s="1">
-        <f>B10/$I$3</f>
+        <f t="shared" si="0"/>
         <v>0.72727272727272729</v>
       </c>
       <c r="D10" s="1">
-        <f>(B10-1)/$I$3</f>
+        <f t="shared" si="1"/>
         <v>0.63636363636363635</v>
       </c>
       <c r="E10" s="1">
-        <f>_xlfn.NORM.DIST(A10,$I$4,$I$5,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>0.64650049666267251</v>
       </c>
       <c r="F10" s="1">
-        <f>ABS(E10-D10)</f>
+        <f t="shared" si="3"/>
         <v>1.0136860299036154E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="4">
+        <f>(L2-L4)/N9</f>
+        <v>-3.9297697782230632</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="S10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U10" s="7">
+        <v>-3.9297697782230632</v>
+      </c>
+      <c r="V10" s="6">
+        <f t="shared" si="4"/>
+        <v>2.0859999999999999</v>
+      </c>
+      <c r="W10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>125.16</v>
       </c>
@@ -3118,23 +3413,28 @@
         <v>9</v>
       </c>
       <c r="C11" s="1">
-        <f>B11/$I$3</f>
+        <f t="shared" si="0"/>
         <v>0.81818181818181823</v>
       </c>
       <c r="D11" s="1">
-        <f>(B11-1)/$I$3</f>
+        <f t="shared" si="1"/>
         <v>0.72727272727272729</v>
       </c>
       <c r="E11" s="1">
-        <f>_xlfn.NORM.DIST(A11,$I$4,$I$5,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>0.78818359727573539</v>
       </c>
       <c r="F11" s="1">
-        <f>ABS(E11-D11)</f>
+        <f t="shared" si="3"/>
         <v>6.09108700030081E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:23" ht="22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>134.16999999999999</v>
       </c>
@@ -3142,23 +3442,32 @@
         <v>10</v>
       </c>
       <c r="C12" s="1">
-        <f>B12/$I$3</f>
+        <f t="shared" si="0"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="D12" s="1">
-        <f>(B12-1)/$I$3</f>
+        <f t="shared" si="1"/>
         <v>0.81818181818181823</v>
       </c>
       <c r="E12" s="1">
-        <f>_xlfn.NORM.DIST(A12,$I$4,$I$5,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>0.92542817399276878</v>
       </c>
       <c r="F12" s="1">
-        <f>ABS(E12-D12)</f>
+        <f t="shared" si="3"/>
         <v>0.10724635581095054</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="4">
+        <v>2.0859999999999999</v>
+      </c>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:23" ht="22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>139.24</v>
       </c>
@@ -3166,28 +3475,40 @@
         <v>11</v>
       </c>
       <c r="C13" s="1">
-        <f>B13/$I$3</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <f>(B13-1)/$I$3</f>
+        <f t="shared" si="1"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="E13" s="1">
-        <f>_xlfn.NORM.DIST(A13,$I$4,$I$5,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>0.96438924019876504</v>
       </c>
       <c r="F13" s="1">
-        <f>ABS(E13-D13)</f>
+        <f t="shared" si="3"/>
         <v>5.529833110785598E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:23" ht="22" x14ac:dyDescent="0.3">
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>89.42</v>
       </c>
@@ -3226,19 +3547,19 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:C26" si="0">B17/$I$16</f>
+        <f t="shared" ref="C17:C26" si="5">B17/$I$16</f>
         <v>0.18181818181818182</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:D26" si="1">(B17-1)/$I$16</f>
+        <f t="shared" ref="D17:D26" si="6">(B17-1)/$I$16</f>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17:E26" si="2">_xlfn.NORM.DIST(A17,$I$17,$I$18,TRUE)</f>
+        <f t="shared" ref="E17:E26" si="7">_xlfn.NORM.DIST(A17,$I$17,$I$18,TRUE)</f>
         <v>8.9178682931375208E-2</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17:F26" si="3">ABS(E17-D17)</f>
+        <f t="shared" ref="F17:F26" si="8">ABS(E17-D17)</f>
         <v>1.7304079777157033E-3</v>
       </c>
       <c r="H17" t="s">
@@ -3257,19 +3578,19 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.27272727272727271</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="E18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.16698245487019756</v>
       </c>
       <c r="F18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.4835726947984268E-2</v>
       </c>
       <c r="H18" t="s">
@@ -3288,19 +3609,19 @@
         <v>4</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.36363636363636365</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.27272727272727271</v>
       </c>
       <c r="E19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.30575815597281059</v>
       </c>
       <c r="F19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3.3030883245537879E-2</v>
       </c>
     </row>
@@ -3312,19 +3633,19 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.45454545454545453</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.36363636363636365</v>
       </c>
       <c r="E20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.39049804318225606</v>
       </c>
       <c r="F20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2.6861679545892414E-2</v>
       </c>
       <c r="H20" t="s">
@@ -3343,19 +3664,19 @@
         <v>6</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.45454545454545453</v>
       </c>
       <c r="E21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.55831962861945206</v>
       </c>
       <c r="F21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.10377417407399753</v>
       </c>
     </row>
@@ -3367,19 +3688,19 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.63636363636363635</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="E22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.66756609182477922</v>
       </c>
       <c r="F22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.1221115463702338</v>
       </c>
     </row>
@@ -3391,19 +3712,19 @@
         <v>8</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.72727272727272729</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.63636363636363635</v>
       </c>
       <c r="E23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.75875710809874142</v>
       </c>
       <c r="F23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.12239347173510506</v>
       </c>
     </row>
@@ -3415,19 +3736,19 @@
         <v>9</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.81818181818181823</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.72727272727272729</v>
       </c>
       <c r="E24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.82996671385509024</v>
       </c>
       <c r="F24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.10269398658236295</v>
       </c>
     </row>
@@ -3439,19 +3760,19 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.81818181818181823</v>
       </c>
       <c r="E25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.87417953568932483</v>
       </c>
       <c r="F25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5.5997717507506595E-2</v>
       </c>
     </row>
@@ -3463,19 +3784,19 @@
         <v>11</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="E26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.89679037093833291</v>
       </c>
       <c r="F26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.2300538152576146E-2</v>
       </c>
     </row>
@@ -3522,19 +3843,19 @@
         <v>2</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:C39" si="4">B30/$I$29</f>
+        <f t="shared" ref="C30:C39" si="9">B30/$I$29</f>
         <v>0.18181818181818182</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D30:D39" si="5">(B30-1)/$I$29</f>
+        <f t="shared" ref="D30:D39" si="10">(B30-1)/$I$29</f>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="E30">
-        <f t="shared" ref="E30:E39" si="6">_xlfn.NORM.DIST(A30,$I$30,$I$31,TRUE)</f>
+        <f t="shared" ref="E30:E39" si="11">_xlfn.NORM.DIST(A30,$I$30,$I$31,TRUE)</f>
         <v>0.15747403532657472</v>
       </c>
       <c r="F30">
-        <f t="shared" ref="F30:F39" si="7">ABS(E30-D30)</f>
+        <f t="shared" ref="F30:F39" si="12">ABS(E30-D30)</f>
         <v>6.6564944417483812E-2</v>
       </c>
       <c r="H30" t="s">
@@ -3553,19 +3874,19 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.27272727272727271</v>
       </c>
       <c r="D31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="E31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.17821925974226602</v>
       </c>
       <c r="F31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3.5989220759158058E-3</v>
       </c>
       <c r="H31" t="s">
@@ -3584,19 +3905,19 @@
         <v>4</v>
       </c>
       <c r="C32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.36363636363636365</v>
       </c>
       <c r="D32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.27272727272727271</v>
       </c>
       <c r="E32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.2327567366502559</v>
       </c>
       <c r="F32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3.9970536077016811E-2</v>
       </c>
     </row>
@@ -3608,19 +3929,19 @@
         <v>5</v>
       </c>
       <c r="C33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.45454545454545453</v>
       </c>
       <c r="D33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.36363636363636365</v>
       </c>
       <c r="E33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.31845743693674156</v>
       </c>
       <c r="F33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4.5178926699622091E-2</v>
       </c>
       <c r="H33" t="s">
@@ -3639,19 +3960,19 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="D34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.45454545454545453</v>
       </c>
       <c r="E34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.36069860203913195</v>
       </c>
       <c r="F34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>9.3846852506322576E-2</v>
       </c>
     </row>
@@ -3663,19 +3984,19 @@
         <v>7</v>
       </c>
       <c r="C35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.63636363636363635</v>
       </c>
       <c r="D35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="E35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.51123137772538074</v>
       </c>
       <c r="F35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3.4223167729164672E-2</v>
       </c>
     </row>
@@ -3687,19 +4008,19 @@
         <v>8</v>
       </c>
       <c r="C36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.72727272727272729</v>
       </c>
       <c r="D36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.63636363636363635</v>
       </c>
       <c r="E36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.70336421973565821</v>
       </c>
       <c r="F36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6.700058337202186E-2</v>
       </c>
     </row>
@@ -3711,19 +4032,19 @@
         <v>9</v>
       </c>
       <c r="C37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.81818181818181823</v>
       </c>
       <c r="D37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.72727272727272729</v>
       </c>
       <c r="E37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.81736890744537272</v>
       </c>
       <c r="F37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>9.0096180172645424E-2</v>
       </c>
     </row>
@@ -3735,19 +4056,19 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="D38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.81818181818181823</v>
       </c>
       <c r="E38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.92399808663218597</v>
       </c>
       <c r="F38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.10581626845036773</v>
       </c>
     </row>
@@ -3759,19 +4080,19 @@
         <v>11</v>
       </c>
       <c r="C39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="E39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.95487861161129772</v>
       </c>
       <c r="F39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4.5787702520388662E-2</v>
       </c>
     </row>
@@ -3818,19 +4139,19 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <f t="shared" ref="C43:C52" si="8">B43/$I$42</f>
+        <f t="shared" ref="C43:C52" si="13">B43/$I$42</f>
         <v>0.18181818181818182</v>
       </c>
       <c r="D43">
-        <f t="shared" ref="D43:D52" si="9">(B43-1)/$I$42</f>
+        <f t="shared" ref="D43:D52" si="14">(B43-1)/$I$42</f>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="E43">
-        <f t="shared" ref="E43:E52" si="10">_xlfn.NORM.DIST(A43,$I$43,$I$44,TRUE)</f>
+        <f t="shared" ref="E43:E52" si="15">_xlfn.NORM.DIST(A43,$I$43,$I$44,TRUE)</f>
         <v>0.16575887523669169</v>
       </c>
       <c r="F43">
-        <f t="shared" ref="F43:F52" si="11">ABS(E43-D43)</f>
+        <f t="shared" ref="F43:F52" si="16">ABS(E43-D43)</f>
         <v>7.4849784327600782E-2</v>
       </c>
       <c r="H43" t="s">
@@ -3849,19 +4170,19 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.27272727272727271</v>
       </c>
       <c r="D44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="E44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.19517912711452493</v>
       </c>
       <c r="F44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.3360945296343102E-2</v>
       </c>
       <c r="H44" t="s">
@@ -3880,19 +4201,19 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.36363636363636365</v>
       </c>
       <c r="D45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.27272727272727271</v>
       </c>
       <c r="E45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.23648098144362392</v>
       </c>
       <c r="F45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3.6246291283648785E-2</v>
       </c>
     </row>
@@ -3904,19 +4225,19 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.45454545454545453</v>
       </c>
       <c r="D46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.36363636363636365</v>
       </c>
       <c r="E46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.33199322029330719</v>
       </c>
       <c r="F46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3.1643143343056457E-2</v>
       </c>
       <c r="H46" t="s">
@@ -3935,19 +4256,19 @@
         <v>6</v>
       </c>
       <c r="C47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="D47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.45454545454545453</v>
       </c>
       <c r="E47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.41489896008804311</v>
       </c>
       <c r="F47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3.9646494457411419E-2</v>
       </c>
     </row>
@@ -3959,19 +4280,19 @@
         <v>7</v>
       </c>
       <c r="C48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.63636363636363635</v>
       </c>
       <c r="D48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="E48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.51044917355516972</v>
       </c>
       <c r="F48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3.5005371899375692E-2</v>
       </c>
     </row>
@@ -3983,19 +4304,19 @@
         <v>8</v>
       </c>
       <c r="C49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.72727272727272729</v>
       </c>
       <c r="D49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.63636363636363635</v>
       </c>
       <c r="E49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.61466528159460232</v>
       </c>
       <c r="F49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2.1698354769034034E-2</v>
       </c>
     </row>
@@ -4007,19 +4328,19 @@
         <v>9</v>
       </c>
       <c r="C50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.81818181818181823</v>
       </c>
       <c r="D50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.72727272727272729</v>
       </c>
       <c r="E50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.72407285868920113</v>
       </c>
       <c r="F50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3.1998685835261664E-3</v>
       </c>
     </row>
@@ -4031,19 +4352,19 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="D51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.81818181818181823</v>
       </c>
       <c r="E51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.86311632176770892</v>
       </c>
       <c r="F51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>4.4934503585890684E-2</v>
       </c>
     </row>
@@ -4055,26 +4376,33 @@
         <v>11</v>
       </c>
       <c r="C52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="E52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.98648624318046096</v>
       </c>
       <c r="F52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>7.7395334089551904E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A30:A39">
-    <sortCondition ref="A30:A39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S5:W10">
+    <sortCondition descending="1" ref="S5:S10"/>
   </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K12:M12"/>
+  </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data_source.xlsx
+++ b/data_source.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiyunqin/Desktop/Homework/graduate/MSCI609/homework/project/MSCI609-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102D67CE-7FEF-2D48-AA11-91015F598EE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2235DA36-A617-BB43-B989-583F1C6A60A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="1240" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="1240" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data_source" sheetId="1" r:id="rId1"/>
-    <sheet name="Normality" sheetId="2" r:id="rId2"/>
+    <sheet name="regression" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="data_source" sheetId="1" r:id="rId4"/>
+    <sheet name="Normality" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
   <si>
     <t>Country</t>
   </si>
@@ -181,6 +184,78 @@
   </si>
   <si>
     <t>Country B</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
   </si>
 </sst>
 </file>
@@ -190,7 +265,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -333,6 +408,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -537,7 +620,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -652,6 +735,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -697,17 +800,25 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1062,11 +1173,992 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A328771-22A8-C244-9594-2392BD443C30}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="92" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="9" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.99076773431902787</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.98162070336765972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.81620703367659786</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="7">
+        <v>6.0126318118005928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="7">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1930.8300223320866</v>
+      </c>
+      <c r="D12" s="7">
+        <v>214.53666914800962</v>
+      </c>
+      <c r="E12" s="7">
+        <v>5.9343384691301591</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.30896062559431775</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7">
+        <v>36.151741304276477</v>
+      </c>
+      <c r="D13" s="7">
+        <v>36.151741304276477</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="8">
+        <v>10</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1966.9817636363632</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="7">
+        <v>-4162.5354034843385</v>
+      </c>
+      <c r="C17" s="7">
+        <v>10669.170089627387</v>
+      </c>
+      <c r="D17" s="7">
+        <v>-0.3901461283789236</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.76318832825760308</v>
+      </c>
+      <c r="F17" s="7">
+        <v>-139727.19492736136</v>
+      </c>
+      <c r="G17" s="7">
+        <v>131402.12412039269</v>
+      </c>
+      <c r="H17" s="7">
+        <v>-139727.19492736136</v>
+      </c>
+      <c r="I17" s="7">
+        <v>131402.12412039269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="7">
+        <v>-1.8753474857124762E-3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1.3158928767279978E-2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>-0.14251520916927349</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.90987886771454507</v>
+      </c>
+      <c r="F18" s="7">
+        <v>-0.16907539051151091</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.16532469554008597</v>
+      </c>
+      <c r="H18" s="7">
+        <v>-0.16907539051151091</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.16532469554008597</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="7">
+        <v>-1.5662134088979325</v>
+      </c>
+      <c r="C19" s="7">
+        <v>10.938991236613679</v>
+      </c>
+      <c r="D19" s="7">
+        <v>-0.14317713352358222</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.90946590021041329</v>
+      </c>
+      <c r="F19" s="7">
+        <v>-140.55927566853228</v>
+      </c>
+      <c r="G19" s="7">
+        <v>137.42684885073641</v>
+      </c>
+      <c r="H19" s="7">
+        <v>-140.55927566853228</v>
+      </c>
+      <c r="I19" s="7">
+        <v>137.42684885073641</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="7">
+        <v>4.0152554164788663</v>
+      </c>
+      <c r="C20" s="7">
+        <v>139.55232297742222</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2.8772401138234604E-2</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.98168797263231</v>
+      </c>
+      <c r="F20" s="7">
+        <v>-1769.1651317434257</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1777.1956425763833</v>
+      </c>
+      <c r="H20" s="7">
+        <v>-1769.1651317434257</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1777.1956425763833</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>65535</v>
+      </c>
+      <c r="E21" s="7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.58117740137204055</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1.3012124446957687</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.44664297804800301</v>
+      </c>
+      <c r="E22" s="7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F22" s="7">
+        <v>-15.952294326190804</v>
+      </c>
+      <c r="G22" s="7">
+        <v>17.114649128934886</v>
+      </c>
+      <c r="H22" s="7">
+        <v>-15.952294326190804</v>
+      </c>
+      <c r="I22" s="7">
+        <v>17.114649128934886</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.21491911686952564</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1.9189484461083808</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.11199837979252683</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.92899551518192292</v>
+      </c>
+      <c r="F23" s="7">
+        <v>-24.167632717547878</v>
+      </c>
+      <c r="G23" s="7">
+        <v>24.597470951286926</v>
+      </c>
+      <c r="H23" s="7">
+        <v>-24.167632717547878</v>
+      </c>
+      <c r="I23" s="7">
+        <v>24.597470951286926</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="7">
+        <v>4.1613776349678755</v>
+      </c>
+      <c r="C24" s="7">
+        <v>10.621992239719642</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.3917699750718055</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.76229161625246356</v>
+      </c>
+      <c r="F24" s="7">
+        <v>-130.80383046896884</v>
+      </c>
+      <c r="G24" s="7">
+        <v>139.12658573890457</v>
+      </c>
+      <c r="H24" s="7">
+        <v>-130.80383046896884</v>
+      </c>
+      <c r="I24" s="7">
+        <v>139.12658573890457</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="7">
+        <v>-13.774338726245469</v>
+      </c>
+      <c r="C25" s="7">
+        <v>48.033150679620697</v>
+      </c>
+      <c r="D25" s="7">
+        <v>-0.28676733737746646</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.82220930921420854</v>
+      </c>
+      <c r="F25" s="7">
+        <v>-624.09338538503528</v>
+      </c>
+      <c r="G25" s="7">
+        <v>596.54470793254438</v>
+      </c>
+      <c r="H25" s="7">
+        <v>-624.09338538503528</v>
+      </c>
+      <c r="I25" s="7">
+        <v>596.54470793254438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="8">
+        <v>-4.3405422471327428</v>
+      </c>
+      <c r="C26" s="8">
+        <v>15.781839520259002</v>
+      </c>
+      <c r="D26" s="8">
+        <v>-0.27503398710656185</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0.82913264845646695</v>
+      </c>
+      <c r="F26" s="8">
+        <v>-204.86782630499681</v>
+      </c>
+      <c r="G26" s="8">
+        <v>196.18674181073135</v>
+      </c>
+      <c r="H26" s="8">
+        <v>-204.86782630499681</v>
+      </c>
+      <c r="I26" s="8">
+        <v>196.18674181073135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B6ECB6-EE04-1541-83B9-3F1595324586}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.9814272966001536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.96319953851188589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.94742791215983702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="7">
+        <v>3.2157166861819402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="7">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1894.5959269958405</v>
+      </c>
+      <c r="D12" s="7">
+        <v>631.53197566528013</v>
+      </c>
+      <c r="E12" s="7">
+        <v>61.071668641627213</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2.1938151754613476E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="7">
+        <v>7</v>
+      </c>
+      <c r="C13" s="7">
+        <v>72.385836640522712</v>
+      </c>
+      <c r="D13" s="7">
+        <v>10.340833805788959</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="8">
+        <v>10</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1966.9817636363632</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="7">
+        <v>274.8709042666402</v>
+      </c>
+      <c r="C17" s="7">
+        <v>63.569994143421908</v>
+      </c>
+      <c r="D17" s="7">
+        <v>4.3239095420788747</v>
+      </c>
+      <c r="E17" s="7">
+        <v>3.4635670859795454E-3</v>
+      </c>
+      <c r="F17" s="7">
+        <v>124.55175444149344</v>
+      </c>
+      <c r="G17" s="7">
+        <v>425.19005409178692</v>
+      </c>
+      <c r="H17" s="7">
+        <v>124.55175444149344</v>
+      </c>
+      <c r="I17" s="7">
+        <v>425.19005409178692</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2.4643274874822795E-3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1.4873109840809341E-3</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1.6569012895477815</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.141507938421015</v>
+      </c>
+      <c r="F18" s="7">
+        <v>-1.0526041351358278E-3</v>
+      </c>
+      <c r="G18" s="7">
+        <v>5.9812591101003863E-3</v>
+      </c>
+      <c r="H18" s="7">
+        <v>-1.0526041351358278E-3</v>
+      </c>
+      <c r="I18" s="7">
+        <v>5.9812591101003863E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1.7203911322130563</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1.4853701903129397</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1.1582238174919897</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.28475708023370611</v>
+      </c>
+      <c r="F19" s="7">
+        <v>-1.7919512423939112</v>
+      </c>
+      <c r="G19" s="7">
+        <v>5.2327335068200238</v>
+      </c>
+      <c r="H19" s="7">
+        <v>-1.7919512423939112</v>
+      </c>
+      <c r="I19" s="7">
+        <v>5.2327335068200238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="8">
+        <v>-53.533462276637195</v>
+      </c>
+      <c r="C20" s="8">
+        <v>12.614094535800994</v>
+      </c>
+      <c r="D20" s="8">
+        <v>-4.243940151605802</v>
+      </c>
+      <c r="E20" s="8">
+        <v>3.8216429970256665E-3</v>
+      </c>
+      <c r="F20" s="8">
+        <v>-83.361056127876253</v>
+      </c>
+      <c r="G20" s="8">
+        <v>-23.70586842539813</v>
+      </c>
+      <c r="H20" s="8">
+        <v>-83.361056127876253</v>
+      </c>
+      <c r="I20" s="8">
+        <v>-23.70586842539813</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4180293F-1D6B-6B46-A37D-3D9A7F0E46AD}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.89994165467799359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.8098949818245651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.78877220202729448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="7">
+        <v>6.4457833238899482</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1593.0486597095235</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1593.0486597095235</v>
+      </c>
+      <c r="E12" s="7">
+        <v>38.342253699450048</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1.6037795167416752E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="7">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7">
+        <v>373.93310392683975</v>
+      </c>
+      <c r="D13" s="7">
+        <v>41.54812265853775</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="8">
+        <v>10</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1966.9817636363632</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="7">
+        <v>548.77795540797001</v>
+      </c>
+      <c r="C17" s="7">
+        <v>70.251676749642442</v>
+      </c>
+      <c r="D17" s="7">
+        <v>7.8115993923342639</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2.6763602054829389E-5</v>
+      </c>
+      <c r="F17" s="7">
+        <v>389.85762165018218</v>
+      </c>
+      <c r="G17" s="7">
+        <v>707.69828916575784</v>
+      </c>
+      <c r="H17" s="7">
+        <v>389.85762165018218</v>
+      </c>
+      <c r="I17" s="7">
+        <v>707.69828916575784</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="8">
+        <v>-96.106841661395819</v>
+      </c>
+      <c r="C18" s="8">
+        <v>15.520849478172794</v>
+      </c>
+      <c r="D18" s="8">
+        <v>-6.1921122163160156</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1.6037795167416781E-4</v>
+      </c>
+      <c r="F18" s="8">
+        <v>-131.21744248115721</v>
+      </c>
+      <c r="G18" s="8">
+        <v>-60.996240841634446</v>
+      </c>
+      <c r="H18" s="8">
+        <v>-131.21744248115721</v>
+      </c>
+      <c r="I18" s="8">
+        <v>-60.996240841634446</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2935,11 +4027,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
@@ -3080,19 +4172,19 @@
       <c r="M4" s="2"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3139,20 +4231,20 @@
         <f>L5*L5</f>
         <v>5170.2229090909013</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="6">
         <v>-1.3956077629833812</v>
       </c>
-      <c r="V5" s="6">
+      <c r="V5" s="5">
         <f>$N$12</f>
         <v>2.0859999999999999</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3184,20 +4276,20 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="S6" s="6" t="s">
+      <c r="S6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="T6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="6">
         <v>2.4817759855432326</v>
       </c>
-      <c r="V6" s="6">
+      <c r="V6" s="5">
         <f t="shared" ref="V6:V10" si="4">$N$12</f>
         <v>2.0859999999999999</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3238,20 +4330,20 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-      <c r="S7" s="6" t="s">
+      <c r="S7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="T7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="6">
         <v>-4.4490667112750275</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V7" s="5">
         <f t="shared" si="4"/>
         <v>2.0859999999999999</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3278,30 +4370,30 @@
         <f t="shared" si="3"/>
         <v>8.7877891630082583E-2</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
       <c r="N8" s="4">
         <f>(O3+O5)/2</f>
         <v>2683.4605427272695</v>
       </c>
       <c r="O8" s="4"/>
-      <c r="S8" s="6" t="s">
+      <c r="S8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="T8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U8" s="6">
         <v>-2.1962361131509156</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8" s="5">
         <f t="shared" si="4"/>
         <v>2.0859999999999999</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3328,30 +4420,30 @@
         <f t="shared" si="3"/>
         <v>0.1113998405586441</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
       <c r="N9" s="4">
         <f>SQRT(N8*(2/11))</f>
         <v>22.088501915238698</v>
       </c>
       <c r="O9" s="4"/>
-      <c r="S9" s="6" t="s">
+      <c r="S9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="T9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="6">
         <v>-3.0708883735589243</v>
       </c>
-      <c r="V9" s="6">
+      <c r="V9" s="5">
         <f t="shared" si="4"/>
         <v>2.0859999999999999</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3378,30 +4470,30 @@
         <f t="shared" si="3"/>
         <v>1.0136860299036154E-2</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
       <c r="N10" s="4">
         <f>(L2-L4)/N9</f>
         <v>-3.9297697782230632</v>
       </c>
       <c r="O10" s="4"/>
-      <c r="S10" s="6" t="s">
+      <c r="S10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="T10" s="6" t="s">
+      <c r="T10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="6">
         <v>-3.9297697782230632</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10" s="5">
         <f t="shared" si="4"/>
         <v>2.0859999999999999</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3457,11 +4549,11 @@
         <f t="shared" si="3"/>
         <v>0.10724635581095054</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
       <c r="N12" s="4">
         <v>2.0859999999999999</v>
       </c>

--- a/data_source.xlsx
+++ b/data_source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiyunqin/Desktop/Homework/graduate/MSCI609/homework/project/MSCI609-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiankai/Documents/UWaterloo/MSCI609/MSCI609-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2235DA36-A617-BB43-B989-583F1C6A60A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52DD0F9-52C6-8949-A668-636DD59D401D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="1240" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="0" windowWidth="27720" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="regression" sheetId="3" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -421,7 +419,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -619,6 +617,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -800,7 +804,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -819,6 +823,8 @@
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2156,7 +2162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+    <sheetView zoomScale="84" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
     </sheetView>
@@ -4029,21 +4035,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W52"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="144" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7:U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="20" max="20" width="16" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.83203125" customWidth="1"/>
+    <col min="21" max="21" width="5.5" customWidth="1"/>
     <col min="22" max="22" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -4053,7 +4059,7 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:23" ht="22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -4086,7 +4092,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:23" ht="22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>94.76</v>
       </c>
@@ -4132,7 +4138,7 @@
         <v>196.69817636363729</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>101.86</v>
       </c>
@@ -4172,23 +4178,8 @@
       <c r="M4" s="2"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="S4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:21" ht="22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>103.66</v>
       </c>
@@ -4231,24 +4222,8 @@
         <f>L5*L5</f>
         <v>5170.2229090909013</v>
       </c>
-      <c r="S5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="U5" s="6">
-        <v>-1.3956077629833812</v>
-      </c>
-      <c r="V5" s="5">
-        <f>$N$12</f>
-        <v>2.0859999999999999</v>
-      </c>
-      <c r="W5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:21" ht="22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>104.2</v>
       </c>
@@ -4276,24 +4251,8 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="S6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="U6" s="6">
-        <v>2.4817759855432326</v>
-      </c>
-      <c r="V6" s="5">
-        <f t="shared" ref="V6:V10" si="4">$N$12</f>
-        <v>2.0859999999999999</v>
-      </c>
-      <c r="W6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:21" ht="22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>108.84</v>
       </c>
@@ -4319,7 +4278,7 @@
       <c r="H7" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="12">
         <f>MAX(F3:F13)</f>
         <v>0.18734219529275475</v>
       </c>
@@ -4330,24 +4289,23 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
+      <c r="Q7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="S7" s="5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="U7" s="6">
-        <v>-4.4490667112750275</v>
-      </c>
-      <c r="V7" s="5">
-        <f t="shared" si="4"/>
-        <v>2.0859999999999999</v>
-      </c>
-      <c r="W7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="22" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>109.16</v>
       </c>
@@ -4380,24 +4338,24 @@
         <v>2683.4605427272695</v>
       </c>
       <c r="O8" s="4"/>
-      <c r="S8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="U8" s="6">
-        <v>-2.1962361131509156</v>
-      </c>
-      <c r="V8" s="5">
-        <f t="shared" si="4"/>
-        <v>2.0859999999999999</v>
-      </c>
-      <c r="W8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="22" x14ac:dyDescent="0.3">
+      <c r="Q8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6">
+        <v>1.3956077629833801</v>
+      </c>
+      <c r="T8" s="5">
+        <f>$N$12</f>
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="U8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>113.06</v>
       </c>
@@ -4430,24 +4388,24 @@
         <v>22.088501915238698</v>
       </c>
       <c r="O9" s="4"/>
-      <c r="S9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="T9" s="5" t="s">
+      <c r="Q9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U9" s="6">
-        <v>-3.0708883735589243</v>
-      </c>
-      <c r="V9" s="5">
-        <f t="shared" si="4"/>
-        <v>2.0859999999999999</v>
-      </c>
-      <c r="W9" s="5">
+      <c r="R9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S9" s="6">
+        <v>2.4817759855432326</v>
+      </c>
+      <c r="T9" s="5">
+        <f t="shared" ref="T6:V13" si="4">$N$12</f>
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="U9" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>119.21</v>
       </c>
@@ -4480,24 +4438,24 @@
         <v>-3.9297697782230632</v>
       </c>
       <c r="O10" s="4"/>
-      <c r="S10" s="5" t="s">
+      <c r="Q10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="T10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="U10" s="6">
-        <v>-3.9297697782230632</v>
-      </c>
-      <c r="V10" s="5">
+      <c r="R10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" s="6">
+        <v>2.19623611315092</v>
+      </c>
+      <c r="T10" s="5">
         <f t="shared" si="4"/>
-        <v>2.0859999999999999</v>
-      </c>
-      <c r="W10" s="5">
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="U10" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>125.16</v>
       </c>
@@ -4525,8 +4483,24 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:23" ht="22" x14ac:dyDescent="0.3">
+      <c r="Q11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S11" s="6">
+        <v>3.0708883735589199</v>
+      </c>
+      <c r="T11" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="U11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>134.16999999999999</v>
       </c>
@@ -4555,11 +4529,27 @@
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="4">
-        <v>2.0859999999999999</v>
+        <v>1.7250000000000001</v>
       </c>
       <c r="O12" s="4"/>
-    </row>
-    <row r="13" spans="1:23" ht="22" x14ac:dyDescent="0.3">
+      <c r="Q12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S12" s="6">
+        <v>3.9297697782230601</v>
+      </c>
+      <c r="T12" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="U12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>139.24</v>
       </c>
@@ -4587,20 +4577,36 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-    </row>
-    <row r="14" spans="1:23" ht="22" x14ac:dyDescent="0.3">
+      <c r="Q13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S13" s="6">
+        <v>4.4490667112750302</v>
+      </c>
+      <c r="T13" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="U13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="22" x14ac:dyDescent="0.3">
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>89.42</v>
       </c>
@@ -4743,7 +4749,7 @@
       <c r="H20" t="s">
         <v>31</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="13">
         <f>MAX(F16:F26)</f>
         <v>0.12239347173510506</v>
       </c>
@@ -5039,7 +5045,7 @@
       <c r="H33" t="s">
         <v>31</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="13">
         <f>MAX(F29:F39)</f>
         <v>0.13376346062836647</v>
       </c>
@@ -5335,7 +5341,7 @@
       <c r="H46" t="s">
         <v>31</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="13">
         <f>MAX(F42:F52)</f>
         <v>0.1535910820571999</v>
       </c>
@@ -5485,8 +5491,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S5:W10">
-    <sortCondition descending="1" ref="S5:S10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q8:U13">
+    <sortCondition descending="1" ref="Q8:Q13"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="K8:M8"/>
@@ -5496,5 +5502,6 @@
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>